--- a/OnlineExamSystemAppPlan.xlsx
+++ b/OnlineExamSystemAppPlan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="100">
   <si>
     <t>UserName(varchar 50)</t>
   </si>
@@ -147,9 +147,6 @@
     <t>UpdatePassword();</t>
   </si>
   <si>
-    <t>what will be the userid for admin</t>
-  </si>
-  <si>
     <t>userId(int)(fk)</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>TableName(New Registration)1</t>
   </si>
   <si>
-    <t>TableName(Login)2</t>
-  </si>
-  <si>
     <t>TableName(UserType)  3</t>
   </si>
   <si>
@@ -316,6 +310,12 @@
   </si>
   <si>
     <t xml:space="preserve">arguments </t>
+  </si>
+  <si>
+    <t>TableName(Login)  2</t>
+  </si>
+  <si>
+    <t>fk</t>
   </si>
 </sst>
 </file>
@@ -427,27 +427,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -477,7 +462,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -502,6 +486,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -821,84 +806,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="M1" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="21"/>
+        <v>54</v>
+      </c>
+      <c r="E2" s="20"/>
       <c r="F2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="26" t="s">
-        <v>75</v>
+        <v>57</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" s="24"/>
+        <v>74</v>
+      </c>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="18" t="s">
-        <v>64</v>
+      <c r="A3" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="E3" s="21"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
         <v>36</v>
@@ -909,37 +894,37 @@
       <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="26"/>
+      <c r="L3" s="25"/>
       <c r="M3" t="s">
         <v>14</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" s="24"/>
+        <v>72</v>
+      </c>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="1:17" ht="30">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
@@ -950,40 +935,40 @@
       <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="26"/>
+      <c r="L4" s="25"/>
       <c r="M4" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>81</v>
+      <c r="N4" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" s="24"/>
+        <v>72</v>
+      </c>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
@@ -991,73 +976,73 @@
       <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="15" t="s">
+      <c r="L5" s="25"/>
+      <c r="M5" s="14" t="s">
         <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q5" s="24"/>
+        <v>81</v>
+      </c>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="21"/>
+        <v>34</v>
+      </c>
+      <c r="E6" s="20"/>
       <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="25"/>
+      <c r="M6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
         <v>84</v>
       </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" t="s">
-        <v>86</v>
-      </c>
       <c r="P6" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q6" s="24"/>
+        <v>81</v>
+      </c>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="21"/>
+        <v>35</v>
+      </c>
+      <c r="E7" s="20"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="15" t="s">
+      <c r="L7" s="25"/>
+      <c r="M7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="23" t="s">
-        <v>87</v>
+      <c r="N7" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1067,23 +1052,23 @@
       <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="26"/>
+        <v>58</v>
+      </c>
+      <c r="K8" s="23"/>
+      <c r="L8" s="25"/>
       <c r="M8" t="s">
         <v>18</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1093,25 +1078,25 @@
       <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G9" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="26"/>
+      <c r="L9" s="25"/>
       <c r="M9" t="s">
         <v>17</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1119,27 +1104,27 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="21"/>
+        <v>34</v>
+      </c>
+      <c r="E10" s="20"/>
       <c r="F10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="26"/>
+      <c r="L10" s="25"/>
       <c r="M10" t="s">
         <v>22</v>
       </c>
       <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" t="s">
         <v>93</v>
-      </c>
-      <c r="O10" t="s">
-        <v>94</v>
-      </c>
-      <c r="P10" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1149,13 +1134,13 @@
       <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="L11" s="26"/>
+      <c r="L11" s="25"/>
       <c r="M11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1165,22 +1150,22 @@
       <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="26"/>
+        <v>59</v>
+      </c>
+      <c r="L12" s="25"/>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="E13" s="21"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
         <v>36</v>
@@ -1188,34 +1173,34 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="21"/>
+        <v>98</v>
+      </c>
+      <c r="E14" s="20"/>
       <c r="F14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="21"/>
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="20"/>
       <c r="F15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -1223,34 +1208,34 @@
       <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="K16" s="24"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="21"/>
+        <v>34</v>
+      </c>
+      <c r="E17" s="20"/>
       <c r="F17" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
@@ -1258,33 +1243,33 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="17" t="s">
+      <c r="E20" s="20"/>
+      <c r="F20" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="17" t="s">
-        <v>50</v>
-      </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1292,33 +1277,35 @@
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="21"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="26" t="s">
+        <v>36</v>
+      </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -1328,10 +1315,13 @@
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B24" s="26" t="s">
+        <v>34</v>
+      </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
         <v>34</v>
@@ -1342,60 +1332,60 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="21"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="21"/>
+      <c r="A26" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15" t="s">
+      <c r="A27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="21"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15" t="s">
+      <c r="A28" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="21"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="21"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="21"/>
+      <c r="A30" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="E31" s="21"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="E32" s="21"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="F34" s="20"/>
+      <c r="F34" s="19"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>

--- a/OnlineExamSystemAppPlan.xlsx
+++ b/OnlineExamSystemAppPlan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
   <si>
     <t>UserName(varchar 50)</t>
   </si>
@@ -147,6 +147,9 @@
     <t>UpdatePassword();</t>
   </si>
   <si>
+    <t>what will be the userid for admin</t>
+  </si>
+  <si>
     <t>userId(int)(fk)</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>TableName(New Registration)1</t>
   </si>
   <si>
+    <t>TableName(Login)2</t>
+  </si>
+  <si>
     <t>TableName(UserType)  3</t>
   </si>
   <si>
@@ -312,10 +318,10 @@
     <t xml:space="preserve">arguments </t>
   </si>
   <si>
-    <t>TableName(Login)  2</t>
-  </si>
-  <si>
-    <t>fk</t>
+    <t>*datatype for only year</t>
+  </si>
+  <si>
+    <t>why to use email and pass twice*</t>
   </si>
 </sst>
 </file>
@@ -427,12 +433,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -462,6 +483,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -486,7 +508,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -806,84 +827,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="B1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="G1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" s="24" t="s">
+      <c r="L1" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>70</v>
+      <c r="O1" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="20"/>
+        <v>55</v>
+      </c>
+      <c r="E2" s="21"/>
       <c r="F2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="25" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="K2" s="24"/>
+      <c r="L2" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q2" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="Q2" s="24"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="17" t="s">
-        <v>62</v>
+      <c r="A3" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="E3" s="20"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
         <v>36</v>
@@ -894,37 +915,37 @@
       <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="25"/>
+      <c r="L3" s="26"/>
       <c r="M3" t="s">
         <v>14</v>
       </c>
       <c r="N3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" s="23"/>
+        <v>74</v>
+      </c>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="30">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
@@ -935,40 +956,40 @@
       <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="25"/>
+      <c r="L4" s="26"/>
       <c r="M4" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>79</v>
+      <c r="N4" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q4" s="23"/>
+        <v>74</v>
+      </c>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
@@ -976,73 +997,73 @@
       <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="14" t="s">
+      <c r="L5" s="26"/>
+      <c r="M5" s="15" t="s">
         <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q5" s="23"/>
+        <v>83</v>
+      </c>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="20"/>
+        <v>35</v>
+      </c>
+      <c r="E6" s="21"/>
       <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="14" t="s">
-        <v>82</v>
+        <v>67</v>
+      </c>
+      <c r="L6" s="26"/>
+      <c r="M6" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s">
         <v>83</v>
       </c>
-      <c r="O6" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q6" s="23"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="1:17" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="20"/>
+        <v>34</v>
+      </c>
+      <c r="E7" s="21"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="14" t="s">
+      <c r="L7" s="26"/>
+      <c r="M7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="22" t="s">
-        <v>85</v>
+      <c r="N7" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1052,23 +1073,23 @@
       <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="25"/>
+        <v>60</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="26"/>
       <c r="M8" t="s">
         <v>18</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1078,25 +1099,25 @@
       <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G9" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="M9" t="s">
         <v>17</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1104,27 +1125,27 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="20"/>
+        <v>35</v>
+      </c>
+      <c r="E10" s="21"/>
       <c r="F10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" t="s">
         <v>22</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1134,13 +1155,16 @@
       <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="21"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="L11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1150,22 +1174,22 @@
       <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="25"/>
+        <v>61</v>
+      </c>
+      <c r="L12" s="26"/>
       <c r="M12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
         <v>36</v>
@@ -1173,34 +1197,37 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="E14" s="21"/>
       <c r="F14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="20"/>
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="21"/>
       <c r="F15" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -1208,34 +1235,34 @@
       <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="K16" s="23"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="20"/>
+        <v>38</v>
+      </c>
+      <c r="E17" s="21"/>
       <c r="F17" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
@@ -1243,33 +1270,33 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="16" t="s">
-        <v>48</v>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="16" t="s">
-        <v>49</v>
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1277,35 +1304,33 @@
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="20"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="20"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>36</v>
-      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="20"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -1315,13 +1340,10 @@
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>34</v>
-      </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="20"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
         <v>34</v>
@@ -1332,60 +1354,60 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="20"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="20"/>
+      <c r="A26" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="20"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="20"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="20"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="20"/>
+      <c r="A30" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="E31" s="20"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="E32" s="20"/>
+      <c r="E32" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="F34" s="19"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
